--- a/excels/Tips.xlsx
+++ b/excels/Tips.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23250" windowHeight="11190"/>
+    <workbookView windowWidth="22410" windowHeight="22434"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1096,6 +1096,11 @@
       </c>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>20002</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1119,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1131,7 +1136,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/Tips.xlsx
+++ b/excels/Tips.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22410" windowHeight="22434"/>
+    <workbookView windowWidth="11520" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>这是一张卡片</t>
+  </si>
+  <si>
+    <t>hallo world</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1026,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1101,6 +1104,9 @@
     <row r="10" spans="1:2">
       <c r="A10">
         <v>20002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1125,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1136,7 +1142,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
